--- a/DATA_goal/Junction_Flooding_47.xlsx
+++ b/DATA_goal/Junction_Flooding_47.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>40751.44444444445</v>
+        <v>40751.44443287037</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>9.550000000000001</v>
@@ -1609,7 +1609,7 @@
         <v>7.5</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>31.51</v>
+        <v>31.5</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>11.63</v>
@@ -1688,110 +1688,6 @@
       </c>
       <c r="AH11" s="4" t="n">
         <v>8.68</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>40751.45137731481</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>32.77</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>13.12</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>3.04</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_47.xlsx
+++ b/DATA_goal/Junction_Flooding_47.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.38194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.64</v>
+        <v>0.76</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>24.62</v>
+        <v>2.46</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.07</v>
+        <v>1.81</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>25.44</v>
+        <v>2.54</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.96</v>
+        <v>1.4</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.02</v>
+        <v>0.9</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.23</v>
+        <v>1.22</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.25</v>
+        <v>0.82</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>129.95</v>
+        <v>12.99</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>24.89</v>
+        <v>2.49</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>15.72</v>
+        <v>1.57</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.31</v>
+        <v>1.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>22.83</v>
+        <v>2.28</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.38888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.62</v>
+        <v>1.66</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.17</v>
+        <v>1.22</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>36.5</v>
+        <v>3.65</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>28.95</v>
+        <v>2.9</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.95</v>
+        <v>1.3</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>48.6</v>
+        <v>4.86</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>20.36</v>
+        <v>2.04</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>14.6</v>
+        <v>1.46</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.66</v>
+        <v>1.57</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.51</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.43</v>
+        <v>1.14</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>192.96</v>
+        <v>19.3</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>36.77</v>
+        <v>3.68</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.15</v>
+        <v>1.21</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>24.3</v>
+        <v>2.43</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.73</v>
+        <v>1.27</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.44</v>
+        <v>2.44</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.68</v>
+        <v>0.97</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.33</v>
+        <v>1.13</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.35</v>
+        <v>1.54</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>44.42</v>
+        <v>4.44</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.39583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.21</v>
+        <v>0.62</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>18.78</v>
+        <v>1.88</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>14.69</v>
+        <v>1.47</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>29.18</v>
+        <v>2.92</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.47</v>
+        <v>1.05</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.05</v>
+        <v>0.21</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.99</v>
+        <v>0.6</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>95.7</v>
+        <v>9.57</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>19.05</v>
+        <v>1.9</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>6.25</v>
+        <v>0.62</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>12.5</v>
+        <v>1.25</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.22</v>
+        <v>0.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>5.52</v>
+        <v>0.55</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>26.83</v>
+        <v>2.68</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>7.81</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.40277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>17.75</v>
+        <v>1.77</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>14.04</v>
+        <v>1.4</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25.83</v>
+        <v>2.58</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.28</v>
+        <v>0.43</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.65</v>
+        <v>0.77</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.99</v>
+        <v>0.9</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>89.95</v>
+        <v>9</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.89</v>
+        <v>1.79</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.19</v>
+        <v>0.62</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.72</v>
+        <v>0.47</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.47</v>
+        <v>0.75</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.49</v>
+        <v>2.35</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.22</v>
+        <v>0.32</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>40751.40972222222</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>14.62</v>
+        <v>1.46</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>11.58</v>
+        <v>1.16</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>21.58</v>
+        <v>2.16</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>3.53</v>
+        <v>0.35</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.6</v>
+        <v>0.16</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>5.26</v>
+        <v>0.53</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>7.41</v>
+        <v>0.74</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>72.79000000000001</v>
+        <v>7.28</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>14.76</v>
+        <v>1.48</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>4.86</v>
+        <v>0.49</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>9.75</v>
+        <v>0.98</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>4.55</v>
+        <v>0.46</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>6.16</v>
+        <v>0.62</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>19.67</v>
+        <v>1.97</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>2.65</v>
+        <v>0.26</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>40751.41666666666</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>4.05</v>
+        <v>0.41</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>17.29</v>
+        <v>1.73</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>4.61</v>
+        <v>0.46</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>4.14</v>
+        <v>0.41</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>3.63</v>
+        <v>0.36</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>55.62</v>
+        <v>5.56</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>3.82</v>
+        <v>0.38</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>4.01</v>
+        <v>0.4</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>15.78</v>
+        <v>1.58</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>4.77</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>40751.42361111111</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z8" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.48</v>
-      </c>
       <c r="AA8" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>40751.43055555555</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>14.34</v>
+        <v>1.43</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>31.35</v>
+        <v>3.13</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>25.6</v>
+        <v>2.56</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>11.26</v>
+        <v>1.13</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>38.86</v>
+        <v>3.89</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>17.45</v>
+        <v>1.75</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7.74</v>
+        <v>0.77</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>11.47</v>
+        <v>1.15</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>16.02</v>
+        <v>1.6</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>164.32</v>
+        <v>16.43</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>31.35</v>
+        <v>3.14</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>21.08</v>
+        <v>2.11</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>19.48</v>
+        <v>1.95</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>13.22</v>
+        <v>1.32</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>34.9</v>
+        <v>3.49</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>40751.4375</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>14.83</v>
+        <v>1.48</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>32.4</v>
+        <v>3.24</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>26.5</v>
+        <v>2.65</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>11.65</v>
+        <v>1.16</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>45.16</v>
+        <v>4.52</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>18.03</v>
+        <v>1.8</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.039999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>13.82</v>
+        <v>1.38</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>16.61</v>
+        <v>1.66</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>170.07</v>
+        <v>17.01</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>32.6</v>
+        <v>3.26</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>21.95</v>
+        <v>2.19</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>11.51</v>
+        <v>1.15</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.65</v>
+        <v>0.16</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>22.12</v>
+        <v>2.21</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>13.66</v>
+        <v>1.37</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>41.1</v>
+        <v>4.11</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>13.45</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_47.xlsx
+++ b/DATA_goal/Junction_Flooding_47.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.88</v>
+        <v>28.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.49</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.06</v>
+        <v>30.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.42</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>15.28</v>
+        <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.12</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.77</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.77</v>
+        <v>27.69</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.65</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.86</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.6</v>
+        <v>16.02</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.33</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.93</v>
+        <v>29.26</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.16</v>
+        <v>11.63</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.89</v>
+        <v>8.91</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.42</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.52</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.47</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.71</v>
+        <v>107.13</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.11</v>
+        <v>21.09</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.74</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.09</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.51</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.64</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.71</v>
+        <v>27.12</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.78</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.84</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.24</v>
+        <v>32.39</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.59</v>
+        <v>25.94</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.39</v>
+        <v>43.93</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.87</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.3</v>
+        <v>12.96</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.38</v>
+        <v>13.83</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.65</v>
+        <v>16.46</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>17.01</v>
+        <v>170.07</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.26</v>
+        <v>32.55</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.17</v>
+        <v>21.67</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.16</v>
+        <v>21.61</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.52</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.55</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4</v>
+        <v>40.04</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.6</v>
+        <v>5.96</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.86</v>
+        <v>18.64</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.83</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.17</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.08</v>
+        <v>40.76</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.31</v>
+        <v>33.06</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.61</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.65</v>
+        <v>56.49</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.27</v>
+        <v>22.69</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.78</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.63</v>
+        <v>16.33</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.38</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.71</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.08</v>
+        <v>20.82</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.44</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.59</v>
+        <v>215.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.1</v>
+        <v>41</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.75</v>
+        <v>27.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.39</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.76</v>
+        <v>27.63</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.12</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.14</v>
+        <v>51.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_47.xlsx
+++ b/DATA_goal/Junction_Flooding_47.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.28</v>
+        <v>13.283</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.51</v>
+        <v>3.507</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.83</v>
+        <v>28.828</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>21.49</v>
+        <v>21.492</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.24</v>
+        <v>10.237</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>30.57</v>
+        <v>30.575</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.47</v>
+        <v>6.473</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.56</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.33</v>
+        <v>11.331</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.14</v>
+        <v>12.141</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.38</v>
+        <v>3.376</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.42</v>
+        <v>14.419</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.41</v>
+        <v>9.413</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.8</v>
+        <v>2.798</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.64</v>
+        <v>1.636</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>29.12</v>
+        <v>29.125</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18.77</v>
+        <v>18.774</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.57</v>
+        <v>9.568</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.81</v>
+        <v>2.805</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.9</v>
+        <v>7.902</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.369</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.72</v>
+        <v>11.722</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.07</v>
+        <v>3.066</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>27.69</v>
+        <v>27.695</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.181</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.147</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>9.474</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.65</v>
+        <v>6.651</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.53</v>
+        <v>1.528</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>20.86</v>
+        <v>20.857</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.02</v>
+        <v>16.015</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.33</v>
+        <v>7.333</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>29.26</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.63</v>
+        <v>11.635</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.88</v>
+        <v>4.875</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7</v>
+        <v>6.997</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>8.294</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.91</v>
+        <v>8.909000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.42</v>
+        <v>2.417</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>10.47</v>
+        <v>10.466</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.74</v>
+        <v>6.737</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.33</v>
+        <v>1.332</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>107.13</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>21.09</v>
+        <v>21.087</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.74</v>
+        <v>13.739</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.09</v>
+        <v>7.086</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.59</v>
+        <v>1.595</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.51</v>
+        <v>14.507</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>5.64</v>
+        <v>5.637</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.64</v>
+        <v>6.641</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.59</v>
+        <v>8.592000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.196</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>27.12</v>
+        <v>27.115</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.72</v>
+        <v>3.725</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>8.68</v>
+        <v>8.678000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -863,100 +863,100 @@
         <v>40751.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.78</v>
+        <v>14.781</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.84</v>
+        <v>10.842</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1.25</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>32.39</v>
+        <v>32.392</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>25.94</v>
+        <v>25.941</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>11.55</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>43.93</v>
+        <v>43.934</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.87</v>
+        <v>7.868</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.53</v>
+        <v>11.526</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.96</v>
+        <v>12.962</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.83</v>
+        <v>13.829</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.74</v>
+        <v>3.743</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.46</v>
+        <v>16.459</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>10.03</v>
+        <v>10.027</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.96</v>
+        <v>0.955</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>170.07</v>
+        <v>170.067</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>32.55</v>
+        <v>32.554</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.67</v>
+        <v>21.668</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.33</v>
+        <v>11.332</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.93</v>
+        <v>1.931</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.61</v>
+        <v>21.607</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.52</v>
+        <v>8.523</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.02</v>
+        <v>10.025</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.55</v>
+        <v>13.551</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>40.04</v>
+        <v>40.042</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.96</v>
+        <v>5.963</v>
       </c>
       <c r="AH4" s="4" t="n">
         <v>13.45</v>
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>16.92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>23.72</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.64</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_47.xlsx
+++ b/DATA_goal/Junction_Flooding_47.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -468,8 +468,8 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,103 +967,207 @@
         <v>40751.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.64</v>
+        <v>18.641</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.83</v>
+        <v>13.831</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.17</v>
+        <v>1.172</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>40.76</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.06</v>
+        <v>33.062</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>14.61</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>56.49</v>
+        <v>56.493</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.69</v>
+        <v>22.687</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.03</v>
+        <v>10.027</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.78</v>
+        <v>14.778</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.33</v>
+        <v>16.335</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.38</v>
+        <v>17.382</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>4.71</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.66</v>
+        <v>14.663</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.82</v>
+        <v>20.821</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.44</v>
+        <v>12.438</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.782</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.785</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>215.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>41</v>
+        <v>40.996</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.53</v>
+        <v>13.534</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.48</v>
+        <v>27.479</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.39</v>
+        <v>14.394</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.23</v>
+        <v>2.227</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.63</v>
+        <v>27.633</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.95</v>
+        <v>11.955</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.63</v>
+        <v>10.633</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.5</v>
+        <v>12.505</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.12</v>
+        <v>17.124</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>51.45</v>
+        <v>51.446</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.58</v>
+        <v>7.582</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.92</v>
+        <v>16.921</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.07637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.64</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_47.xlsx
+++ b/DATA_goal/Junction_Flooding_47.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -468,8 +468,8 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -967,207 +967,103 @@
         <v>40751.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>18.641</v>
+        <v>18.64</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>13.831</v>
+        <v>13.83</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.172</v>
+        <v>1.17</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>40.76</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>33.062</v>
+        <v>33.06</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>14.61</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>56.493</v>
+        <v>56.49</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.687</v>
+        <v>22.69</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.027</v>
+        <v>10.03</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.778</v>
+        <v>14.78</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16.335</v>
+        <v>16.33</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>17.382</v>
+        <v>17.38</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>4.71</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.663</v>
+        <v>14.66</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>20.821</v>
+        <v>20.82</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>12.438</v>
+        <v>12.44</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.782</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.785</v>
+        <v>0.79</v>
       </c>
       <c r="T5" s="4" t="n">
         <v>215.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>40.996</v>
+        <v>41</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>13.534</v>
+        <v>13.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>27.479</v>
+        <v>27.48</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.394</v>
+        <v>14.39</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.227</v>
+        <v>2.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>27.633</v>
+        <v>27.63</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>11.955</v>
+        <v>11.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.633</v>
+        <v>10.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.505</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.124</v>
+        <v>17.12</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>51.446</v>
+        <v>51.45</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.582</v>
+        <v>7.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>16.921</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.72</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>23.72</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.44</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.04</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.64</v>
+        <v>16.92</v>
       </c>
     </row>
   </sheetData>
